--- a/biology/Médecine/Appareil_dentaire/Appareil_dentaire.xlsx
+++ b/biology/Médecine/Appareil_dentaire/Appareil_dentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un appareil dentaire est un dispositif fixe, semi-amovible ou amovible servant à la correction de la position des dents ou de la mâchoire.
 </t>
@@ -511,7 +523,9 @@
           <t>Fixe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les appareils fixes servent à la correction des mauvaises positions des mâchoires (orthopédie dento-faciale) et des dents (orthodontie) ou au maintien de la portion des dents (garde-place : quand les dents font leur éruption et contention: une fois le traitement orthodontique fini).
 Broches
@@ -558,7 +572,9 @@
           <t>Semi amovible</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les appareils semi-amovibles servent à la correction des mauvaises positions des mâchoires (orthopédie dento-faciale) et des dents (orthodontie).
 Les appareils intra-oral :
@@ -602,7 +618,9 @@
           <t>Amovibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les appareils amovibles servent à la correction des mauvaises positions des mâchoires (orthopédie dento-faciale) ou au maintien de la position des dents (contention) une fois le traitement orthodontique terminé. 
 Orthopédie
